--- a/projects/test_building/input/Scenario_VentilationTechnology_Cost_Material.xlsx
+++ b/projects/test_building/input/Scenario_VentilationTechnology_Cost_Material.xlsx
@@ -1,19 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/3E/RenderNew/projects/test_building/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace_sia\RenderNew\projects\test_building\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C21E28-DB65-3F48-8897-217CEC378708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17360"/>
   </bookViews>
   <sheets>
-    <sheet name="updated" sheetId="4" r:id="rId1"/>
+    <sheet name="Tabelle1" sheetId="4" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -176,7 +175,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -232,54 +231,54 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A1:AS8" totalsRowShown="0">
-  <autoFilter ref="A1:AS8" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:AS8" totalsRowShown="0">
+  <autoFilter ref="A1:AS8"/>
   <tableColumns count="45">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id_region"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="id_ventilation_technology"/>
-    <tableColumn id="2" xr3:uid="{EAE824DF-ABC3-4F47-8E99-14E2C132CECF}" name="id_ventilation_technology_efficiency_class"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="unit"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="2010"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="2011"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="2012"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="2013"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="2014"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="2015"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="2016"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="2017"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="2018"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="2019"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="2020"/>
-    <tableColumn id="3" xr3:uid="{DD3295CD-90DC-0246-88F7-D3B9109B602E}" name="2021"/>
-    <tableColumn id="4" xr3:uid="{F0746659-BA6A-9341-B841-E3970039EBA6}" name="2022"/>
-    <tableColumn id="18" xr3:uid="{A1497E3E-F3E1-9F4B-A692-B66AC60AB3E2}" name="2023"/>
-    <tableColumn id="19" xr3:uid="{FD0574BA-3397-DB48-A5C0-81433FF70672}" name="2024"/>
-    <tableColumn id="20" xr3:uid="{A69462C5-6F84-CC48-AB63-67A430409001}" name="2025"/>
-    <tableColumn id="21" xr3:uid="{E3E48907-21EE-EC4D-95E5-81175538EAC9}" name="2026"/>
-    <tableColumn id="22" xr3:uid="{45F478D7-6344-4142-8EB6-B5A63D561E86}" name="2027"/>
-    <tableColumn id="23" xr3:uid="{F00DEC41-1D47-1E45-84EF-B3509D29FDCE}" name="2028"/>
-    <tableColumn id="24" xr3:uid="{05B62D01-5515-EC45-AF0C-A512F08E20A2}" name="2029"/>
-    <tableColumn id="25" xr3:uid="{9627BC7B-75BA-574E-B652-71907F2F9AAF}" name="2030"/>
-    <tableColumn id="26" xr3:uid="{CBC13949-3FEA-9342-ACC6-4F2F52D221EB}" name="2031"/>
-    <tableColumn id="27" xr3:uid="{52A57EE3-6FA6-7F44-A7F0-8258C12959A6}" name="2032"/>
-    <tableColumn id="28" xr3:uid="{CD605B87-A45F-DD43-9810-2CC7E0C7655A}" name="2033"/>
-    <tableColumn id="29" xr3:uid="{FE1AB5F5-60E5-CD42-B49E-77B9C348E646}" name="2034"/>
-    <tableColumn id="30" xr3:uid="{14BF3935-82C3-AA46-85C8-FF477D222F4B}" name="2035"/>
-    <tableColumn id="31" xr3:uid="{548BCB26-D235-A74F-A9AE-C217846F1382}" name="2036"/>
-    <tableColumn id="32" xr3:uid="{4015C7E1-15E9-734C-AB18-71BB1FC55C67}" name="2037"/>
-    <tableColumn id="33" xr3:uid="{8C79F2FA-979E-0246-8C7B-971E8D8B9347}" name="2038"/>
-    <tableColumn id="34" xr3:uid="{E3A2DF65-E80B-204E-8EC6-C24D3AEC6B70}" name="2039"/>
-    <tableColumn id="35" xr3:uid="{B81FBCC4-1CC9-F04E-A129-98849F662AA7}" name="2040"/>
-    <tableColumn id="36" xr3:uid="{17ABCB27-E256-0446-8CB7-44A7197CCB84}" name="2041"/>
-    <tableColumn id="37" xr3:uid="{87EAA2A4-8FC2-B149-8E16-FCA307E1C943}" name="2042"/>
-    <tableColumn id="38" xr3:uid="{D94FBDA6-1FF3-034F-9521-461B1CBB27C9}" name="2043"/>
-    <tableColumn id="39" xr3:uid="{20C70922-967A-5744-A065-03247F744214}" name="2044"/>
-    <tableColumn id="40" xr3:uid="{1B39D672-BF11-8A44-9E09-340745EB7745}" name="2045"/>
-    <tableColumn id="41" xr3:uid="{550462F3-5503-E249-B7E1-8B59C15C1C3F}" name="2046"/>
-    <tableColumn id="42" xr3:uid="{D0ED816F-DF66-CD47-A4CA-9A2BBD3CB290}" name="2047"/>
-    <tableColumn id="43" xr3:uid="{822635B0-BEE8-F849-B37F-6F0765DAEFDA}" name="2048"/>
-    <tableColumn id="44" xr3:uid="{F1BEB9A1-5942-304F-8B16-44DA0C6526E9}" name="2049"/>
-    <tableColumn id="45" xr3:uid="{611AB296-201F-8F47-BD2D-F96C971412B6}" name="2050"/>
+    <tableColumn id="1" name="id_region"/>
+    <tableColumn id="5" name="id_ventilation_technology"/>
+    <tableColumn id="2" name="id_ventilation_technology_efficiency_class"/>
+    <tableColumn id="6" name="unit"/>
+    <tableColumn id="7" name="2010"/>
+    <tableColumn id="8" name="2011"/>
+    <tableColumn id="9" name="2012"/>
+    <tableColumn id="10" name="2013"/>
+    <tableColumn id="11" name="2014"/>
+    <tableColumn id="12" name="2015"/>
+    <tableColumn id="13" name="2016"/>
+    <tableColumn id="14" name="2017"/>
+    <tableColumn id="15" name="2018"/>
+    <tableColumn id="16" name="2019"/>
+    <tableColumn id="17" name="2020"/>
+    <tableColumn id="3" name="2021"/>
+    <tableColumn id="4" name="2022"/>
+    <tableColumn id="18" name="2023"/>
+    <tableColumn id="19" name="2024"/>
+    <tableColumn id="20" name="2025"/>
+    <tableColumn id="21" name="2026"/>
+    <tableColumn id="22" name="2027"/>
+    <tableColumn id="23" name="2028"/>
+    <tableColumn id="24" name="2029"/>
+    <tableColumn id="25" name="2030"/>
+    <tableColumn id="26" name="2031"/>
+    <tableColumn id="27" name="2032"/>
+    <tableColumn id="28" name="2033"/>
+    <tableColumn id="29" name="2034"/>
+    <tableColumn id="30" name="2035"/>
+    <tableColumn id="31" name="2036"/>
+    <tableColumn id="32" name="2037"/>
+    <tableColumn id="33" name="2038"/>
+    <tableColumn id="34" name="2039"/>
+    <tableColumn id="35" name="2040"/>
+    <tableColumn id="36" name="2041"/>
+    <tableColumn id="37" name="2042"/>
+    <tableColumn id="38" name="2043"/>
+    <tableColumn id="39" name="2044"/>
+    <tableColumn id="40" name="2045"/>
+    <tableColumn id="41" name="2046"/>
+    <tableColumn id="42" name="2047"/>
+    <tableColumn id="43" name="2048"/>
+    <tableColumn id="44" name="2049"/>
+    <tableColumn id="45" name="2050"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -569,20 +568,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="185" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -719,7 +718,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>9</v>
       </c>
@@ -856,7 +855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>9</v>
       </c>
@@ -993,7 +992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>9</v>
       </c>
@@ -1130,7 +1129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>9</v>
       </c>
@@ -1267,7 +1266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>9</v>
       </c>
@@ -1404,7 +1403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>9</v>
       </c>
@@ -1541,7 +1540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>9</v>
       </c>
